--- a/data/trans_orig/P41C1_AOS_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41C1_AOS_2023_R-Habitat-trans_orig.xlsx
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>3.888291884187363</v>
+        <v>3.888291884187362</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>4.071801608128967</v>
+        <v>4.071801608128968</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>3.929874581481126</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.284471878756859</v>
+        <v>1.201799280938193</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>1.416945689668459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.617795509067904</v>
+        <v>1.642920733976152</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.30132823243623</v>
+        <v>9.983324577831572</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.944864045145091</v>
+        <v>5.960060690236401</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.859829927575466</v>
+        <v>7.889360366570702</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2785682109385313</v>
+        <v>0.2584146532938962</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.183057552704617</v>
+        <v>2.135150267644471</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.084303829957371</v>
+        <v>1.88200257977223</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.41782694366186</v>
+        <v>4.417826943661858</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.859089240896603</v>
+        <v>7.410337334237116</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.073916536971955</v>
+        <v>5.88555048424896</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>2.545996509192378</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.2120265123711</v>
+        <v>3.212026512371101</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.198379403574228</v>
+        <v>1.802036402307373</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8766743437938926</v>
+        <v>1.078425934639211</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.944913431154461</v>
+        <v>1.996486023484803</v>
       </c>
     </row>
     <row r="12">
@@ -707,10 +707,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.054198452648084</v>
+        <v>7.04536425213873</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.723485378831443</v>
+        <v>4.810493390594824</v>
       </c>
     </row>
     <row r="13">
@@ -731,7 +731,7 @@
         <v>3.005125980524722</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2.563399363483998</v>
+        <v>2.563399363483997</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.369895179829038</v>
+        <v>1.474043310025397</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.031431033654675</v>
+        <v>2.011991883814998</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.906490994393765</v>
+        <v>1.89796531607226</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.86311209506275</v>
+        <v>3.062807436766481</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.737448060733312</v>
+        <v>4.859835617325636</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.497116087870017</v>
+        <v>3.554410051941632</v>
       </c>
     </row>
     <row r="16">
@@ -783,10 +783,10 @@
         <v>2.93362312337045</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.394675804106369</v>
+        <v>3.394675804106368</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.168325397167558</v>
+        <v>3.168325397167559</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.006168497700266</v>
+        <v>1.984211764405174</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.436036424404034</v>
+        <v>2.488965177101705</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.461300903707347</v>
+        <v>2.431437999789246</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.486115380737616</v>
+        <v>4.594934039184221</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.896920965576298</v>
+        <v>5.024845010256515</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.156259457898665</v>
+        <v>4.286037512241818</v>
       </c>
     </row>
     <row r="19">
